--- a/Templates/Test Plan Template .xlsx
+++ b/Templates/Test Plan Template .xlsx
@@ -1,26 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://summerclassics-my.sharepoint.com/personal/justinp_summerclassics_com/Documents/Desktop/WIP/Templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub_v2\WIP\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="13_ncr:1_{C9F28550-9522-4B6B-A546-D21DCB71AC13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6ADFF90-31FE-4CD9-B0F2-BFB50200D4A6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06A98F7-B236-44AF-8ABC-D9BD035A5996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="40" r:id="rId1"/>
     <sheet name="Case #1" sheetId="33" r:id="rId2"/>
-    <sheet name="Case #2" sheetId="32" r:id="rId3"/>
-    <sheet name="Case #3" sheetId="35" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Case #1'!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">'Case #2'!$1:$5</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>Test Case #</t>
   </si>
@@ -122,66 +119,54 @@
     <t>Test Cast Screens Shots Before and After</t>
   </si>
   <si>
-    <t>Created a staged record ([SOH].[SorMater_Process_Staged])
-SalesOrder : 200-1086449
-DispatchNote : 100000000241383</t>
-  </si>
-  <si>
-    <t>Created a staged record ([SOH].[SorMater_Process_Staged])
-SalesOrder : 200-1077775
-DispatchNote : 100000000205964</t>
-  </si>
-  <si>
-    <t>Justin Pope - 4/27/2022</t>
-  </si>
-  <si>
-    <t>Run the test application out of Visual Studio</t>
-  </si>
-  <si>
-    <t>Staged Record :
-ProcessNumber - 1</t>
-  </si>
-  <si>
-    <t>1) Application does not error out
-2) Validate changes in Syspro</t>
-  </si>
-  <si>
     <t>Running from Visual Studio</t>
   </si>
   <si>
     <t>Added the Staged record manually</t>
   </si>
   <si>
-    <t>Add Staged Record</t>
-  </si>
-  <si>
     <t>query database</t>
   </si>
   <si>
-    <t>Syspro Error - Can not modify this order</t>
-  </si>
-  <si>
     <t>Justin Pope Dev Test</t>
   </si>
   <si>
-    <t>No errors</t>
-  </si>
-  <si>
-    <t>1) Running the Test WinForm application within Visual Studios
-2) All updates are validations and will not update data</t>
-  </si>
-  <si>
-    <t>execute new procedure</t>
-  </si>
-  <si>
-    <t>On Dev Environment, process SorMasterHeader_Ref table with updated procedure UpdateSalesOrderHeaderReferenceTable</t>
+    <t>SOH execution on GWCApps</t>
+  </si>
+  <si>
+    <t>On dev, confirm new changes are correct</t>
+  </si>
+  <si>
+    <t>1) SSMS
+2) GWCApps</t>
+  </si>
+  <si>
+    <t>Justin Pope - 2023-06-21</t>
+  </si>
+  <si>
+    <t>update staged record to reprocess</t>
+  </si>
+  <si>
+    <t>update process number 50457</t>
+  </si>
+  <si>
+    <t>watch SOH process run</t>
+  </si>
+  <si>
+    <t>screen shots</t>
+  </si>
+  <si>
+    <t>reset process number 50457</t>
+  </si>
+  <si>
+    <t>Logging showing processes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -203,11 +188,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="8"/>
       <name val="Arial"/>
@@ -222,10 +202,6 @@
       <sz val="6"/>
       <name val="Courier New"/>
       <family val="3"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="5">
@@ -342,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -395,30 +371,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -437,101 +407,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -548,6 +482,143 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1591716</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>28873</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51ED8B93-99B1-4119-4409-E18C55460C47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="809625" y="5400675"/>
+          <a:ext cx="7459116" cy="2133898"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2744801</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>124543</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{435A692A-3A1F-DD8D-0A14-43875C4A912D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="809625" y="7991475"/>
+          <a:ext cx="11469701" cy="5144218"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>26289</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>113071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BB6DAD4-CC64-665F-6E73-2223DE9EF9F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="809625" y="13335000"/>
+          <a:ext cx="18285714" cy="9828571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -873,20 +944,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="34.7265625" customWidth="1"/>
-    <col min="3" max="3" width="37.7265625" customWidth="1"/>
-    <col min="4" max="4" width="75.54296875" customWidth="1"/>
-    <col min="5" max="5" width="8.81640625" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" customWidth="1"/>
+    <col min="4" max="4" width="75.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -903,92 +974,92 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="27"/>
-    </row>
-    <row r="3" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="E2" s="25"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="33"/>
       <c r="B3" s="33"/>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
-      <c r="E3" s="41"/>
-    </row>
-    <row r="4" spans="1:5" ht="26" x14ac:dyDescent="0.25">
+      <c r="E3" s="35"/>
+    </row>
+    <row r="4" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-    </row>
-    <row r="5" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="33"/>
       <c r="B5" s="33"/>
       <c r="C5" s="34"/>
       <c r="D5" s="34"/>
-      <c r="E5" s="41"/>
-    </row>
-    <row r="6" spans="1:5" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="E5" s="35"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="40"/>
-    </row>
-    <row r="7" spans="1:5" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="31"/>
+      <c r="E6" s="32"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="36"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="40"/>
-    </row>
-    <row r="8" spans="1:5" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+      <c r="D7" s="31"/>
+      <c r="E7" s="32"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="36"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="36"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-    </row>
-    <row r="10" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+    </row>
+    <row r="10" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-    </row>
-    <row r="11" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="33" t="s">
         <v>11</v>
       </c>
@@ -997,48 +1068,41 @@
       <c r="D11" s="33"/>
       <c r="E11" s="34"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>1</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-    </row>
-    <row r="13" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+    </row>
+    <row r="13" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>2</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>3</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B14:E14"/>
@@ -1048,6 +1112,13 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="B10:E10"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1059,79 +1130,79 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21:F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K65" sqref="K65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.7265625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="45.1796875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="42.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="42.81640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="42.453125" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9.1796875" style="3"/>
+    <col min="1" max="1" width="1.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="45.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="42.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="42.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
       <c r="D1" s="33"/>
-      <c r="E1" s="46"/>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="E1" s="48"/>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="35">
+      <c r="B2" s="49"/>
+      <c r="C2" s="37">
         <v>1</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="35" t="str">
+      <c r="B3" s="49"/>
+      <c r="C3" s="37" t="str">
         <f>'Test Cases'!B2</f>
-        <v>execute new procedure</v>
-      </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-    </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+        <v>SOH execution on GWCApps</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="35" t="str">
+      <c r="B4" s="49"/>
+      <c r="C4" s="37" t="str">
         <f>'Test Cases'!D2</f>
-        <v>1) Running the Test WinForm application within Visual Studios
-2) All updates are validations and will not update data</v>
-      </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+        <v>1) SSMS
+2) GWCApps</v>
+      </c>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="28" t="s">
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="26" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="15" t="s">
@@ -1141,79 +1212,77 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+    <row r="6" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-    </row>
-    <row r="7" spans="1:6" s="10" customFormat="1" ht="50" x14ac:dyDescent="0.25">
-      <c r="A7" s="44">
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+    </row>
+    <row r="7" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="45">
         <v>1</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="32" t="s">
+      <c r="B7" s="46"/>
+      <c r="C7" s="25" t="s">
         <v>35</v>
       </c>
       <c r="D7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="45">
+        <v>2</v>
+      </c>
+      <c r="B8" s="46"/>
+      <c r="C8" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+    </row>
+    <row r="10" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="41">
+        <v>1</v>
+      </c>
+      <c r="B10" s="42"/>
+      <c r="C10" s="25" t="s">
         <v>27</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="12"/>
-    </row>
-    <row r="8" spans="1:6" s="10" customFormat="1" ht="25" x14ac:dyDescent="0.25">
-      <c r="A8" s="44">
-        <v>2</v>
-      </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="10" customFormat="1" ht="13" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-    </row>
-    <row r="10" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="51">
-        <v>1</v>
-      </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="27" t="s">
-        <v>33</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="51">
+    <row r="11" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="41">
         <v>2</v>
       </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="26" t="s">
-        <v>34</v>
+      <c r="B11" s="42"/>
+      <c r="C11" s="24" t="s">
+        <v>28</v>
       </c>
       <c r="D11" s="22" t="s">
         <v>24</v>
@@ -1223,73 +1292,73 @@
       </c>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="27"/>
+    <row r="12" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="39"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="25"/>
       <c r="D12" s="23"/>
       <c r="E12" s="16"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="27"/>
+    <row r="13" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="39"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="23"/>
       <c r="E13" s="16"/>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" s="10" customFormat="1" ht="13" x14ac:dyDescent="0.25">
-      <c r="A14" s="43" t="s">
+    <row r="14" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-    </row>
-    <row r="15" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="31"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+    </row>
+    <row r="15" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="45"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="14"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
-      <c r="B16" s="50"/>
+    <row r="16" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="39"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="18"/>
     </row>
-    <row r="17" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="31"/>
+    <row r="17" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="45"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="29"/>
       <c r="D17" s="14"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
     </row>
-    <row r="18" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="31"/>
+    <row r="18" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="27"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="29"/>
       <c r="D18" s="14"/>
       <c r="E18" s="12"/>
       <c r="F18" s="17"/>
     </row>
-    <row r="19" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="49"/>
-      <c r="B19" s="50"/>
+    <row r="19" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="39"/>
+      <c r="B19" s="40"/>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
       <c r="F19" s="19"/>
     </row>
-    <row r="20" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="33" t="s">
         <v>26</v>
       </c>
@@ -1299,27 +1368,26 @@
       <c r="E20" s="33"/>
       <c r="F20" s="34"/>
     </row>
-    <row r="21" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="48"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
+    <row r="21" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="43"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C23" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C39" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A19:B19"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A8:B8"/>
@@ -1332,583 +1400,40 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A20:F20"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="5" scale="94" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:F20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="1.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.7265625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="56.26953125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="42.36328125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="42.81640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="42.453125" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9.1796875" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="46"/>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="35">
-        <v>2</v>
-      </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="35" t="e">
-        <f>'Test Cases'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-    </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="35" t="e">
-        <f>'Test Cases'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-    </row>
-    <row r="7" spans="1:6" s="10" customFormat="1" ht="50" x14ac:dyDescent="0.25">
-      <c r="A7" s="44">
-        <v>1</v>
-      </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="12"/>
-    </row>
-    <row r="8" spans="1:6" s="10" customFormat="1" ht="25" x14ac:dyDescent="0.25">
-      <c r="A8" s="44">
-        <v>2</v>
-      </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="10" customFormat="1" ht="13" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-    </row>
-    <row r="10" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="51">
-        <v>1</v>
-      </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-    </row>
-    <row r="11" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="51">
-        <v>2</v>
-      </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="12"/>
-    </row>
-    <row r="12" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" spans="1:6" s="10" customFormat="1" ht="13" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-    </row>
-    <row r="14" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="49"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-    </row>
-    <row r="16" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="17" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="17"/>
-    </row>
-    <row r="18" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="24"/>
-    </row>
-    <row r="19" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="34"/>
-    </row>
-    <row r="20" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="48"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-    </row>
-  </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A15:B15"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="5" scale="94" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="1.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.7265625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="56.26953125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.1796875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="42.81640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="42.453125" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9.1796875" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="46"/>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="35">
-        <v>3</v>
-      </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="35" t="e">
-        <f>'Test Cases'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-    </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="35" t="e">
-        <f>'Test Cases'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-    </row>
-    <row r="7" spans="1:6" s="10" customFormat="1" ht="100" x14ac:dyDescent="0.25">
-      <c r="A7" s="44">
-        <v>1</v>
-      </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="12"/>
-    </row>
-    <row r="8" spans="1:6" s="10" customFormat="1" ht="25" x14ac:dyDescent="0.25">
-      <c r="A8" s="44">
-        <v>2</v>
-      </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="10" customFormat="1" ht="13" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-    </row>
-    <row r="10" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="51">
-        <v>1</v>
-      </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-    </row>
-    <row r="11" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="51">
-        <v>2</v>
-      </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="12"/>
-    </row>
-    <row r="12" spans="1:6" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="53"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="63"/>
-    </row>
-    <row r="15" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-    </row>
-    <row r="16" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-    </row>
-    <row r="17" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-    </row>
-    <row r="18" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="17"/>
-    </row>
-    <row r="19" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="49"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="24"/>
-    </row>
-    <row r="20" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="57"/>
-    </row>
-    <row r="21" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="60"/>
-    </row>
-  </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:F3"/>
-  </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="5" scale="94" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1a638d2c-e7c0-419c-9191-e92086f67d97">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="84e25877-5f26-4dc3-9598-48e40fb4ec5c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006C2685AC3E5C784C94699E6BCD3719C2" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bc4032ed2b9525712665d7b053f58e3c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a638d2c-e7c0-419c-9191-e92086f67d97" xmlns:ns3="84e25877-5f26-4dc3-9598-48e40fb4ec5c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="60642ebedafdd5f29702615754875760" ns2:_="" ns3:_="">
     <xsd:import namespace="1a638d2c-e7c0-419c-9191-e92086f67d97"/>
@@ -2139,31 +1664,34 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1a638d2c-e7c0-419c-9191-e92086f67d97">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="84e25877-5f26-4dc3-9598-48e40fb4ec5c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1336CC8-439A-433F-AFCD-D3738BD4CF84}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D54ED65-933A-4F90-B95A-15C952E0CAEF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1a638d2c-e7c0-419c-9191-e92086f67d97"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="84e25877-5f26-4dc3-9598-48e40fb4ec5c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{433CEB9C-4DCB-4DF9-8E44-99AD43459D1C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1E225A3-DBF5-416D-8482-D016D280651E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2182,18 +1710,13 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{433CEB9C-4DCB-4DF9-8E44-99AD43459D1C}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1336CC8-439A-433F-AFCD-D3738BD4CF84}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D54ED65-933A-4F90-B95A-15C952E0CAEF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1a638d2c-e7c0-419c-9191-e92086f67d97"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="84e25877-5f26-4dc3-9598-48e40fb4ec5c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Templates/Test Plan Template .xlsx
+++ b/Templates/Test Plan Template .xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub_v2\WIP\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06A98F7-B236-44AF-8ABC-D9BD035A5996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0967607E-8B30-4B18-BB95-F96014570449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="40" r:id="rId1"/>
     <sheet name="Case #1" sheetId="33" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="41" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="42" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Case #1'!$1:$5</definedName>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
   <si>
     <t>Test Case #</t>
   </si>
@@ -110,56 +112,34 @@
     <t>Configuration/Data Setup for Testing Scenario</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Verification</t>
   </si>
   <si>
     <t>Test Cast Screens Shots Before and After</t>
   </si>
   <si>
-    <t>Running from Visual Studio</t>
-  </si>
-  <si>
-    <t>Added the Staged record manually</t>
-  </si>
-  <si>
-    <t>query database</t>
-  </si>
-  <si>
     <t>Justin Pope Dev Test</t>
   </si>
   <si>
-    <t>SOH execution on GWCApps</t>
-  </si>
-  <si>
-    <t>On dev, confirm new changes are correct</t>
-  </si>
-  <si>
-    <t>1) SSMS
-2) GWCApps</t>
-  </si>
-  <si>
     <t>Justin Pope - 2023-06-21</t>
   </si>
   <si>
-    <t>update staged record to reprocess</t>
-  </si>
-  <si>
-    <t>update process number 50457</t>
-  </si>
-  <si>
-    <t>watch SOH process run</t>
-  </si>
-  <si>
-    <t>screen shots</t>
-  </si>
-  <si>
-    <t>reset process number 50457</t>
-  </si>
-  <si>
-    <t>Logging showing processes</t>
+    <t>Case 1</t>
+  </si>
+  <si>
+    <t>Dev Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) </t>
+  </si>
+  <si>
+    <t>Case 2</t>
+  </si>
+  <si>
+    <t>1)</t>
+  </si>
+  <si>
+    <t>Case 3</t>
   </si>
 </sst>
 </file>
@@ -407,32 +387,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -445,27 +446,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -482,143 +462,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1591716</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>28873</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51ED8B93-99B1-4119-4409-E18C55460C47}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="809625" y="5400675"/>
-          <a:ext cx="7459116" cy="2133898"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2744801</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>124543</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{435A692A-3A1F-DD8D-0A14-43875C4A912D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="809625" y="7991475"/>
-          <a:ext cx="11469701" cy="5144218"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>26289</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>113071</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BB6DAD4-CC64-665F-6E73-2223DE9EF9F6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="809625" y="13335000"/>
-          <a:ext cx="18285714" cy="9828571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -942,10 +785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -979,146 +822,178 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="25"/>
+    </row>
+    <row r="3" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E3" s="25"/>
+    </row>
+    <row r="4" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <f>A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="25"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
-    </row>
-    <row r="4" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="C4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="25"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="38"/>
+    </row>
+    <row r="6" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="35"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="38"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="32"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
+      <c r="B8" s="33"/>
+      <c r="C8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="36"/>
+      <c r="E8" s="37"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="32"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
+      <c r="B9" s="33"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="37"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-    </row>
-    <row r="10" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="33"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+    </row>
+    <row r="12" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="34"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="9">
-        <v>1</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-    </row>
-    <row r="13" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="9">
-        <v>2</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="31"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
+        <v>1</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+    </row>
+    <row r="15" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
+        <v>2</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
         <v>3</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B16" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="A7:E7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1130,11 +1005,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K65" sqref="K65"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1149,59 +1024,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="48"/>
+      <c r="A1" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="43"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="37">
+      <c r="B2" s="44"/>
+      <c r="C2" s="32">
         <v>1</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="37" t="str">
+      <c r="B3" s="44"/>
+      <c r="C3" s="32" t="str">
         <f>'Test Cases'!B2</f>
-        <v>SOH execution on GWCApps</v>
-      </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
+        <v>Case 1</v>
+      </c>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="37" t="str">
+      <c r="B4" s="44"/>
+      <c r="C4" s="32" t="str">
         <f>'Test Cases'!D2</f>
-        <v>1) SSMS
-2) GWCApps</v>
-      </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
+        <v xml:space="preserve">1) </v>
+      </c>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="26" t="s">
         <v>19</v>
       </c>
@@ -1213,130 +1087,101 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
     </row>
     <row r="7" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="45">
-        <v>1</v>
-      </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>38</v>
-      </c>
+      <c r="A7" s="41"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="12"/>
     </row>
     <row r="8" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="45">
-        <v>2</v>
-      </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="25" t="s">
-        <v>37</v>
-      </c>
+      <c r="A8" s="41"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="13"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="12" t="s">
-        <v>38</v>
-      </c>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
     </row>
     <row r="10" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="41">
-        <v>1</v>
-      </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="25" t="s">
-        <v>27</v>
-      </c>
+      <c r="A10" s="48"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="11"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="41">
-        <v>2</v>
-      </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="A11" s="48"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="22"/>
       <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="39"/>
-      <c r="B12" s="40"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="25"/>
       <c r="D12" s="23"/>
       <c r="E12" s="16"/>
       <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="39"/>
-      <c r="B13" s="40"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="25"/>
       <c r="D13" s="23"/>
       <c r="E13" s="16"/>
       <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
+      <c r="A14" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
     </row>
     <row r="15" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="45"/>
-      <c r="B15" s="46"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="42"/>
       <c r="C15" s="29"/>
       <c r="D15" s="14"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
     </row>
     <row r="16" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="39"/>
-      <c r="B16" s="40"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="18"/>
     </row>
     <row r="17" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="45"/>
-      <c r="B17" s="46"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="42"/>
       <c r="C17" s="29"/>
       <c r="D17" s="14"/>
       <c r="E17" s="12"/>
@@ -1351,43 +1196,44 @@
       <c r="F18" s="17"/>
     </row>
     <row r="19" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="39"/>
-      <c r="B19" s="40"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
       <c r="F19" s="19"/>
     </row>
     <row r="20" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="34"/>
+      <c r="A20" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="31"/>
     </row>
     <row r="21" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="43"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C23" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C39" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A19:B19"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A8:B8"/>
@@ -1400,40 +1246,510 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A20:F20"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="5" scale="94" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65E8B8D8-512B-449A-8292-F39EF9F9200B}">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="45.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="42.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="42.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="43"/>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="32">
+        <f>'Test Cases'!A3</f>
+        <v>2</v>
+      </c>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="32" t="str">
+        <f>'Test Cases'!B3</f>
+        <v>Case 2</v>
+      </c>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="44"/>
+      <c r="C4" s="32" t="str">
+        <f>'Test Cases'!D3</f>
+        <v>1)</v>
+      </c>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+    </row>
+    <row r="7" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="41"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="41"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+    </row>
+    <row r="10" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="48"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+    </row>
+    <row r="11" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="48"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="22"/>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="46"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="46"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+    </row>
+    <row r="15" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="41"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+    </row>
+    <row r="16" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="46"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="18"/>
+    </row>
+    <row r="17" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="41"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+    </row>
+    <row r="18" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="27"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="17"/>
+    </row>
+    <row r="19" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="46"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="19"/>
+    </row>
+    <row r="20" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="31"/>
+    </row>
+    <row r="21" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8630E188-67BE-42B3-BD7B-AD2C9ADE9BF1}">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="45.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="42.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="42.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="43"/>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="32">
+        <v>1</v>
+      </c>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="32" t="str">
+        <f>'Test Cases'!B2</f>
+        <v>Case 1</v>
+      </c>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="44"/>
+      <c r="C4" s="32" t="str">
+        <f>'Test Cases'!D2</f>
+        <v xml:space="preserve">1) </v>
+      </c>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+    </row>
+    <row r="7" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="41"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="41"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+    </row>
+    <row r="10" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="48"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+    </row>
+    <row r="11" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="48"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="22"/>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="46"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="46"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+    </row>
+    <row r="15" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="41"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+    </row>
+    <row r="16" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="46"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="18"/>
+    </row>
+    <row r="17" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="41"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+    </row>
+    <row r="18" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="27"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="17"/>
+    </row>
+    <row r="19" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="46"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="19"/>
+    </row>
+    <row r="20" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="31"/>
+    </row>
+    <row r="21" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006C2685AC3E5C784C94699E6BCD3719C2" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bc4032ed2b9525712665d7b053f58e3c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a638d2c-e7c0-419c-9191-e92086f67d97" xmlns:ns3="84e25877-5f26-4dc3-9598-48e40fb4ec5c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="60642ebedafdd5f29702615754875760" ns2:_="" ns3:_="">
     <xsd:import namespace="1a638d2c-e7c0-419c-9191-e92086f67d97"/>
@@ -1664,6 +1980,19 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
@@ -1676,22 +2005,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D54ED65-933A-4F90-B95A-15C952E0CAEF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{433CEB9C-4DCB-4DF9-8E44-99AD43459D1C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1E225A3-DBF5-416D-8482-D016D280651E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1710,6 +2023,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{433CEB9C-4DCB-4DF9-8E44-99AD43459D1C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D54ED65-933A-4F90-B95A-15C952E0CAEF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1336CC8-439A-433F-AFCD-D3738BD4CF84}">
   <ds:schemaRefs>

--- a/Templates/Test Plan Template .xlsx
+++ b/Templates/Test Plan Template .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub_v2\WIP\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646D747A-26FE-40FE-8C8B-BCDD605274D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94803A6F-5814-4FA3-AD42-D0985877CBA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="1680" windowWidth="21600" windowHeight="13740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="40" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Test Case #</t>
   </si>
@@ -129,33 +129,6 @@
   </si>
   <si>
     <t>Justin Pope - 2023-09-27</t>
-  </si>
-  <si>
-    <t>Testing below</t>
-  </si>
-  <si>
-    <t>The following shows that the DeliveryInfo column has been mapped for the delivery phone number</t>
-  </si>
-  <si>
-    <t>Also values that were being populated for the ShipDescription were too long</t>
-  </si>
-  <si>
-    <t>As for the issue for this problem data validation has been made to confirm that the values returned are not causing this issue. The following has been identified:</t>
-  </si>
-  <si>
-    <t>ShippingDescription</t>
-  </si>
-  <si>
-    <t>DeliveryPhoneNumber</t>
-  </si>
-  <si>
-    <t>addressing these issue the test query executes with no issues</t>
-  </si>
-  <si>
-    <t>The solution I am opting for is that of  casting the DeliveryInfo due to the following query of data</t>
-  </si>
-  <si>
-    <t>narrowing the data down to the last few months</t>
   </si>
 </sst>
 </file>
@@ -313,55 +286,55 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -379,231 +352,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2706399</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>38339</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A042821A-135F-D474-6903-6244801E2435}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="76200" y="9391650"/>
-          <a:ext cx="9307224" cy="1714739"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>544318</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>1062</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9FC5455-2D53-C7E2-C036-D9BA39CE2D5F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="95250" y="3943350"/>
-          <a:ext cx="9983593" cy="7611537"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>601476</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>143935</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAAB2F32-AA82-2835-683B-87040CF5015C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="95250" y="13011150"/>
-          <a:ext cx="10040751" cy="7592485"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>506213</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>105083</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3664D49-9B3C-E312-3734-1DCB33FFEF11}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="95250" y="21269325"/>
-          <a:ext cx="9945488" cy="2210108"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>172791</xdr:colOff>
-      <xdr:row>138</xdr:row>
-      <xdr:rowOff>19211</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDE33A51-8D36-EBB6-F5D6-8CAC50BFCE5A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="95250" y="23860125"/>
-          <a:ext cx="9612066" cy="1152686"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -895,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -941,11 +689,11 @@
       <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
@@ -957,49 +705,49 @@
       <c r="E4" s="21"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="24"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="15"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="15"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="15"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="15"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
     </row>
     <row r="10" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
@@ -1011,49 +759,56 @@
       <c r="E10" s="21"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>1</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
     </row>
     <row r="13" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>2</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>3</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B14:E14"/>
@@ -1063,13 +818,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="B10:E10"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1081,11 +829,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F131"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C145" sqref="C145"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1100,58 +848,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="29"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="22">
+      <c r="B2" s="28"/>
+      <c r="C2" s="18">
         <v>1</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="22" t="str">
+      <c r="B3" s="28"/>
+      <c r="C3" s="18" t="str">
         <f>'Test Cases'!B2</f>
         <v>Unit Testing</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="22" t="str">
+      <c r="B4" s="28"/>
+      <c r="C4" s="18" t="str">
         <f>'Test Cases'!D2</f>
         <v xml:space="preserve">1) </v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="14" t="s">
         <v>19</v>
       </c>
@@ -1163,103 +911,69 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
     </row>
     <row r="7" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="13" t="s">
-        <v>31</v>
-      </c>
+      <c r="A7" s="29"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-    </row>
-    <row r="45" spans="3:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="C45" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D45" s="31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="60" spans="3:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="C60" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C61" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C62" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="64" spans="3:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="C64" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="115" spans="3:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="C115" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C131" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D45" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A8:F8"/>
@@ -1271,19 +985,28 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:F10"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="5" scale="94" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="1a638d2c-e7c0-419c-9191-e92086f67d97">
@@ -1292,19 +1015,6 @@
     <TaxCatchAll xmlns="84e25877-5f26-4dc3-9598-48e40fb4ec5c" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1539,12 +1249,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1336CC8-439A-433F-AFCD-D3738BD4CF84}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{433CEB9C-4DCB-4DF9-8E44-99AD43459D1C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1a638d2c-e7c0-419c-9191-e92086f67d97"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="84e25877-5f26-4dc3-9598-48e40fb4ec5c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1558,9 +1265,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{433CEB9C-4DCB-4DF9-8E44-99AD43459D1C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1336CC8-439A-433F-AFCD-D3738BD4CF84}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1a638d2c-e7c0-419c-9191-e92086f67d97"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="84e25877-5f26-4dc3-9598-48e40fb4ec5c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
